--- a/client/public/student-template.xlsx
+++ b/client/public/student-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7770"/>
+    <workbookView windowWidth="20400" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Full Name</t>
   </si>
@@ -41,15 +41,18 @@
     <t>Grade Level</t>
   </si>
   <si>
-    <t>Parent Name</t>
-  </si>
-  <si>
-    <t>Parent Phone</t>
+    <t>Mother Name</t>
+  </si>
+  <si>
+    <t>Mother Contact</t>
   </si>
   <si>
     <t> Health Status</t>
   </si>
   <si>
+    <t>Father Contact</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tomas Medihne </t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t>0978456532</t>
   </si>
   <si>
+    <t>0778070707</t>
+  </si>
+  <si>
     <t>YANET SEID MOHAMMED</t>
   </si>
   <si>
@@ -77,43 +83,10 @@
     <t>0987563214</t>
   </si>
   <si>
-    <t xml:space="preserve">YEAMNAT ABERHAM </t>
-  </si>
-  <si>
-    <t>Aberham</t>
-  </si>
-  <si>
-    <t>0978693265</t>
-  </si>
-  <si>
     <t>paralized</t>
   </si>
   <si>
-    <t>YOSEF DEREJE LEGASSA</t>
-  </si>
-  <si>
-    <t>Dereje</t>
-  </si>
-  <si>
-    <t>0789546398</t>
-  </si>
-  <si>
-    <t>GNAMAT ROBERT</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
     <t>0785748956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABISALATE G/TSADIK </t>
-  </si>
-  <si>
-    <t>Gebre Tsadik</t>
-  </si>
-  <si>
-    <t>0778070707</t>
   </si>
 </sst>
 </file>
@@ -750,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,9 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -780,7 +750,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1308,14 +1278,18 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="30.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="16.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="14.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="13.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="18.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="17.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1340,130 +1314,70 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
         <v>42085</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42086</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5">
-        <v>42086</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
+    <row r="4" spans="3:3">
+      <c r="C4" s="4"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42087</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
+    <row r="5" spans="3:3">
+      <c r="C5" s="4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5">
-        <v>42088</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
+    <row r="6" spans="3:3">
+      <c r="C6" s="4"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5">
-        <v>42089</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>42090</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
+    <row r="7" spans="3:3">
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
